--- a/sablonas.xlsx
+++ b/sablonas.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariu\Desktop\tutor-invoice-generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FC29C52-FE22-4951-A755-44D59D21A805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298920E8-6DB9-4D30-93E4-11A0AD58A0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="684" yWindow="3360" windowWidth="17280" windowHeight="8880"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PVM saskaita" sheetId="584" r:id="rId1"/>
@@ -101,19 +101,19 @@
     <t>Serija 2022 Nr. 088</t>
   </si>
   <si>
-    <t>Vincentas Adomaitis</t>
-  </si>
-  <si>
-    <t>Korepetitoriaus paslaugos(5 val.)</t>
+    <t>Vardas Pavarde</t>
+  </si>
+  <si>
+    <t>Korepetitoriaus paslaugos(x val.)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="yyyy\.mm\.dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\.mm\.dd"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -611,7 +611,7 @@
   <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -633,7 +633,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -657,7 +657,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -691,6 +691,54 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="17" fontId="7" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -702,54 +750,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="17" fontId="7" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1178,11 +1178,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1199,15 +1199,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="46" t="s">
         <v>20</v>
       </c>
@@ -1225,7 +1225,7 @@
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="12">
-        <v>44683</v>
+        <v>36161</v>
       </c>
       <c r="F6" s="13"/>
     </row>
@@ -1237,10 +1237,10 @@
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="50"/>
+      <c r="C8" s="70"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="18"/>
@@ -1259,35 +1259,35 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="53"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="53"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="73"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="53"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="73"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
@@ -1314,22 +1314,22 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="56"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="76"/>
       <c r="G15" s="4"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="70"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="72"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="63"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
@@ -1361,10 +1361,10 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="74"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="18"/>
@@ -1383,20 +1383,20 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="61"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="63"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="54"/>
       <c r="G22" s="4"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="66"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="57"/>
       <c r="G23" s="4"/>
       <c r="H23" s="1"/>
     </row>
@@ -1433,27 +1433,27 @@
       <c r="F27" s="13"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="75" t="s">
+      <c r="B28" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="76"/>
-      <c r="D28" s="48" t="s">
+      <c r="C28" s="67"/>
+      <c r="D28" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="48"/>
+      <c r="E28" s="68"/>
       <c r="F28" s="44" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="68" t="s">
+      <c r="C29" s="51"/>
+      <c r="D29" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="69"/>
+      <c r="E29" s="60"/>
       <c r="F29" s="45">
         <v>85</v>
       </c>
@@ -1472,10 +1472,7 @@
       <c r="E31" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="40">
-        <f>F29</f>
-        <v>85</v>
-      </c>
+      <c r="F31" s="40"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
@@ -1499,8 +1496,8 @@
       <c r="F34" s="14"/>
     </row>
     <row r="35" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="67"/>
-      <c r="C35" s="67"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
       <c r="D35" s="10"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
@@ -1526,10 +1523,10 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="58" t="s">
+      <c r="B38" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="58"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="41" t="s">
         <v>11</v>
       </c>
@@ -1572,10 +1569,7 @@
         <v>6</v>
       </c>
       <c r="C42" s="14"/>
-      <c r="D42" s="38" t="str">
-        <f>B21</f>
-        <v>Vincentas Adomaitis</v>
-      </c>
+      <c r="D42" s="38"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
       <c r="G42" s="4"/>
